--- a/pystartup.xlsx
+++ b/pystartup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdiener/Work/pystartup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B0A0A5-0B6A-CA42-8BF0-6814179F5F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525D5801-E794-E848-97BD-1BBE00993857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{28DF55BD-3F37-4248-BDFF-FB17A69E511D}"/>
   </bookViews>
@@ -227,10 +227,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$421</c:f>
+              <c:f>Sheet1!$A$2:$A$481</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss.0</c:formatCode>
-                <c:ptCount val="420"/>
+                <c:ptCount val="480"/>
                 <c:pt idx="0">
                   <c:v>2.0555555555555558E-5</c:v>
                 </c:pt>
@@ -1490,6 +1490,186 @@
                 </c:pt>
                 <c:pt idx="419">
                   <c:v>3.6203703703703706E-5</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>2.0555555555555558E-5</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.8495370370370368E-5</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.5983796296296299E-5</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.550925925925926E-5</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1.5902777777777778E-5</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.7997685185185188E-5</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1.550925925925926E-5</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.5127314814814814E-5</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.5578703703703706E-5</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.5405092592592592E-5</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.8171296296296295E-5</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.7974537037037037E-5</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.9363425925925925E-5</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>2.0810185185185182E-5</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1.8750000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.8043981481481483E-5</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1.8090277777777777E-5</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.7858796296296297E-5</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1.8333333333333333E-5</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1.8773148148148149E-5</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2.2488425925925926E-5</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2.2500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>2.175925925925926E-5</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>2.2013888888888891E-5</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>2.59375E-5</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>2.1458333333333334E-5</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>2.1249999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>2.2037037037037034E-5</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>2.3449074074074072E-5</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>2.1620370370370369E-5</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2.7118055555555555E-5</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2.5879629629629627E-5</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>2.6608796296296293E-5</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>2.9120370370370375E-5</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>2.7013888888888893E-5</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>3.0393518518518516E-5</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>2.8055555555555554E-5</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>3.1643518518518515E-5</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>2.4814814814814816E-5</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>2.5868055555555552E-5</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>4.0208333333333333E-5</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>4.6377314814814815E-5</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>4.2800925925925922E-5</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>3.9895833333333332E-5</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>4.7962962962962956E-5</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>6.0497685185185188E-5</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>5.1828703703703699E-5</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>4.7685185185185188E-5</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>4.6296296296296294E-5</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>4.6527777777777767E-5</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>7.1620370370370368E-5</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>9.3865740740740728E-5</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>9.0937499999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>7.4641203703703705E-5</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>7.5451388888888885E-5</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>8.9560185185185183E-5</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>8.6307870370370366E-5</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>5.789351851851851E-5</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>7.9548611111111115E-5</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>8.6041666666666666E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,15 +2422,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2286,7 +2466,7 @@
       <cdr:y>0.08247</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.23746</cdr:x>
+      <cdr:x>0.22191</cdr:x>
       <cdr:y>0.97845</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -2303,7 +2483,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="990600" y="508000"/>
-          <a:ext cx="1143000" cy="5518752"/>
+          <a:ext cx="1003300" cy="5518752"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2352,11 +2532,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.36042</cdr:x>
+      <cdr:x>0.32933</cdr:x>
       <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.48905</cdr:x>
+      <cdr:x>0.44099</cdr:x>
       <cdr:y>0.9806</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -2372,8 +2552,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3238500" y="469900"/>
-          <a:ext cx="1155700" cy="5570127"/>
+          <a:off x="2959100" y="469900"/>
+          <a:ext cx="1003300" cy="5570127"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2513,12 +2693,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.60777</cdr:x>
-      <cdr:y>0.07216</cdr:y>
+      <cdr:x>0.54841</cdr:x>
+      <cdr:y>0.08041</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.73357</cdr:x>
-      <cdr:y>0.97198</cdr:y>
+      <cdr:x>0.65866</cdr:x>
+      <cdr:y>0.98023</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2533,8 +2713,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5461000" y="444500"/>
-          <a:ext cx="1130300" cy="5542428"/>
+          <a:off x="4927600" y="495300"/>
+          <a:ext cx="990600" cy="5542428"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2674,12 +2854,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.23746</cdr:x>
-      <cdr:y>0.08247</cdr:y>
+      <cdr:x>0.22332</cdr:x>
+      <cdr:y>0.08454</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.36042</cdr:x>
-      <cdr:y>0.97845</cdr:y>
+      <cdr:x>0.32933</cdr:x>
+      <cdr:y>0.98051</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2694,8 +2874,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2133600" y="508000"/>
-          <a:ext cx="1104900" cy="5518752"/>
+          <a:off x="2006600" y="520700"/>
+          <a:ext cx="952500" cy="5518752"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2830,11 +3010,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.48622</cdr:x>
+      <cdr:x>0.4424</cdr:x>
       <cdr:y>0.07835</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.60636</cdr:x>
+      <cdr:x>0.547</cdr:x>
       <cdr:y>0.97414</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -2850,8 +3030,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4368800" y="482600"/>
-          <a:ext cx="1079500" cy="5517603"/>
+          <a:off x="3975100" y="482600"/>
+          <a:ext cx="939800" cy="5517603"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2986,12 +3166,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.73074</cdr:x>
-      <cdr:y>0.0701</cdr:y>
+      <cdr:x>0.65724</cdr:x>
+      <cdr:y>0.07835</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.86078</cdr:x>
-      <cdr:y>0.97414</cdr:y>
+      <cdr:x>0.76749</cdr:x>
+      <cdr:y>0.98239</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3006,8 +3186,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6565900" y="431800"/>
-          <a:ext cx="1168400" cy="5568403"/>
+          <a:off x="5905500" y="482600"/>
+          <a:ext cx="990600" cy="5568403"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3142,12 +3322,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.86219</cdr:x>
-      <cdr:y>0.0701</cdr:y>
+      <cdr:x>0.76749</cdr:x>
+      <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98799</cdr:x>
-      <cdr:y>0.97414</cdr:y>
+      <cdr:x>0.87774</cdr:x>
+      <cdr:y>0.98032</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3162,8 +3342,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7747000" y="431800"/>
-          <a:ext cx="1130300" cy="5568403"/>
+          <a:off x="6896100" y="469900"/>
+          <a:ext cx="990600" cy="5568403"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3296,6 +3476,162 @@
               </a:solidFill>
             </a:rPr>
             <a:t>64 Nodes</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87915</cdr:x>
+      <cdr:y>0.08041</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9894</cdr:x>
+      <cdr:y>0.98445</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E9EE45-59B4-F145-BBF5-FB9ECA300EF1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7899400" y="495300"/>
+          <a:ext cx="990600" cy="5568403"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" lIns="274320"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>128 Nodes</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -3601,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9744310-6B56-A046-96FA-F82FC8F9AE24}">
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:B481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6966,8 +7302,484 @@
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="1"/>
-      <c r="B422" s="1"/>
+      <c r="A422" s="1">
+        <v>2.0555555555555558E-5</v>
+      </c>
+      <c r="B422" s="1">
+        <v>1.1782407407407407E-4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>1.8495370370370368E-5</v>
+      </c>
+      <c r="B423" s="1">
+        <v>2.1678240740740742E-5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>1.5983796296296299E-5</v>
+      </c>
+      <c r="B424" s="1">
+        <v>2.091435185185185E-5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>1.550925925925926E-5</v>
+      </c>
+      <c r="B425" s="1">
+        <v>1.8275462962962963E-5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>1.5902777777777778E-5</v>
+      </c>
+      <c r="B426" s="1">
+        <v>1.7812500000000003E-5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>1.7997685185185188E-5</v>
+      </c>
+      <c r="B427" s="1">
+        <v>2.0787037037037038E-5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>1.550925925925926E-5</v>
+      </c>
+      <c r="B428" s="1">
+        <v>1.7858796296296297E-5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>1.5127314814814814E-5</v>
+      </c>
+      <c r="B429" s="1">
+        <v>1.8287037037037038E-5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>1.5578703703703706E-5</v>
+      </c>
+      <c r="B430" s="1">
+        <v>1.8020833333333332E-5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>1.5405092592592592E-5</v>
+      </c>
+      <c r="B431" s="1">
+        <v>1.728009259259259E-5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
+        <v>1.8171296296296295E-5</v>
+      </c>
+      <c r="B432" s="1">
+        <v>2.2511574074074073E-5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>1.7974537037037037E-5</v>
+      </c>
+      <c r="B433" s="1">
+        <v>2.1423611111111112E-5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>1.9363425925925925E-5</v>
+      </c>
+      <c r="B434" s="1">
+        <v>2.6180555555555552E-5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>2.0810185185185182E-5</v>
+      </c>
+      <c r="B435" s="1">
+        <v>2.6956018518518523E-5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>1.8750000000000002E-5</v>
+      </c>
+      <c r="B436" s="1">
+        <v>2.193287037037037E-5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>1.8043981481481483E-5</v>
+      </c>
+      <c r="B437" s="1">
+        <v>2.3310185185185182E-5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>1.8090277777777777E-5</v>
+      </c>
+      <c r="B438" s="1">
+        <v>2.3414351851851853E-5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>1.7858796296296297E-5</v>
+      </c>
+      <c r="B439" s="1">
+        <v>2.1458333333333334E-5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>1.8333333333333333E-5</v>
+      </c>
+      <c r="B440" s="1">
+        <v>2.1747685185185184E-5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>1.8773148148148149E-5</v>
+      </c>
+      <c r="B441" s="1">
+        <v>2.2870370370370372E-5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>2.2488425925925926E-5</v>
+      </c>
+      <c r="B442" s="1">
+        <v>2.9201388888888889E-5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>2.2500000000000001E-5</v>
+      </c>
+      <c r="B443" s="1">
+        <v>2.9953703703703706E-5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>2.175925925925926E-5</v>
+      </c>
+      <c r="B444" s="1">
+        <v>3.0312499999999998E-5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>2.2013888888888891E-5</v>
+      </c>
+      <c r="B445" s="1">
+        <v>3.3159722222222225E-5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>2.59375E-5</v>
+      </c>
+      <c r="B446" s="1">
+        <v>3.8587962962962965E-5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>2.1458333333333334E-5</v>
+      </c>
+      <c r="B447" s="1">
+        <v>3.0891203703703705E-5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>2.1249999999999998E-5</v>
+      </c>
+      <c r="B448" s="1">
+        <v>3.1550925925925926E-5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>2.2037037037037034E-5</v>
+      </c>
+      <c r="B449" s="1">
+        <v>3.4108796296296303E-5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>2.3449074074074072E-5</v>
+      </c>
+      <c r="B450" s="1">
+        <v>3.1250000000000007E-5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>2.1620370370370369E-5</v>
+      </c>
+      <c r="B451" s="1">
+        <v>3.1053240740740733E-5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>2.7118055555555555E-5</v>
+      </c>
+      <c r="B452" s="1">
+        <v>4.9872685185185187E-5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>2.5879629629629627E-5</v>
+      </c>
+      <c r="B453" s="1">
+        <v>5.9363425925925925E-5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>2.6608796296296293E-5</v>
+      </c>
+      <c r="B454" s="1">
+        <v>5.0694444444444443E-5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>2.9120370370370375E-5</v>
+      </c>
+      <c r="B455" s="1">
+        <v>5.6273148148148149E-5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>2.7013888888888893E-5</v>
+      </c>
+      <c r="B456" s="1">
+        <v>5.1886574074074076E-5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>3.0393518518518516E-5</v>
+      </c>
+      <c r="B457" s="1">
+        <v>5.446759259259259E-5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>2.8055555555555554E-5</v>
+      </c>
+      <c r="B458" s="1">
+        <v>5.4409722222222213E-5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>3.1643518518518515E-5</v>
+      </c>
+      <c r="B459" s="1">
+        <v>6.8900462962962977E-5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>2.4814814814814816E-5</v>
+      </c>
+      <c r="B460" s="1">
+        <v>5.1979166666666665E-5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>2.5868055555555552E-5</v>
+      </c>
+      <c r="B461" s="1">
+        <v>5.9039351851851848E-5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>4.0208333333333333E-5</v>
+      </c>
+      <c r="B462" s="1">
+        <v>9.3032407407407411E-5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>4.6377314814814815E-5</v>
+      </c>
+      <c r="B463" s="1">
+        <v>9.4340277777777771E-5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>4.2800925925925922E-5</v>
+      </c>
+      <c r="B464" s="1">
+        <v>8.9861111111111128E-5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>3.9895833333333332E-5</v>
+      </c>
+      <c r="B465" s="1">
+        <v>9.4571759259259251E-5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>4.7962962962962956E-5</v>
+      </c>
+      <c r="B466" s="1">
+        <v>9.0324074074074062E-5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>6.0497685185185188E-5</v>
+      </c>
+      <c r="B467" s="1">
+        <v>1.1178240740740739E-4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>5.1828703703703699E-5</v>
+      </c>
+      <c r="B468" s="1">
+        <v>1.0966435185185184E-4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>4.7685185185185188E-5</v>
+      </c>
+      <c r="B469" s="1">
+        <v>9.2615740740740752E-5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="B470" s="1">
+        <v>9.2291666666666669E-5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>4.6527777777777767E-5</v>
+      </c>
+      <c r="B471" s="1">
+        <v>9.25462962962963E-5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>7.1620370370370368E-5</v>
+      </c>
+      <c r="B472" s="1">
+        <v>1.7783564814814813E-4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>9.3865740740740728E-5</v>
+      </c>
+      <c r="B473" s="1">
+        <v>1.9407407407407408E-4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>9.0937499999999995E-5</v>
+      </c>
+      <c r="B474" s="1">
+        <v>2.10462962962963E-4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>7.4641203703703705E-5</v>
+      </c>
+      <c r="B475" s="1">
+        <v>1.7545138888888886E-4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>7.5451388888888885E-5</v>
+      </c>
+      <c r="B476" s="1">
+        <v>1.7491898148148149E-4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>8.9560185185185183E-5</v>
+      </c>
+      <c r="B477" s="1">
+        <v>1.8496527777777774E-4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>8.6307870370370366E-5</v>
+      </c>
+      <c r="B478" s="1">
+        <v>2.1184027777777778E-4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>5.789351851851851E-5</v>
+      </c>
+      <c r="B479" s="1">
+        <v>1.7041666666666667E-4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>7.9548611111111115E-5</v>
+      </c>
+      <c r="B480" s="1">
+        <v>1.7648148148148148E-4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>8.6041666666666666E-5</v>
+      </c>
+      <c r="B481" s="1">
+        <v>1.880902777777778E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pystartup.xlsx
+++ b/pystartup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdiener/Work/pystartup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525D5801-E794-E848-97BD-1BBE00993857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4438BF90-EBDA-9F42-BF8B-EF55D01550FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{28DF55BD-3F37-4248-BDFF-FB17A69E511D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{28DF55BD-3F37-4248-BDFF-FB17A69E511D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
           <c:x val="0.11013906123925322"/>
           <c:y val="0.13463933760857213"/>
           <c:w val="0.87431323558053475"/>
-          <c:h val="0.83994821008198728"/>
+          <c:h val="0.72242243688611085"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -227,10 +227,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$481</c:f>
+              <c:f>Sheet1!$A$2:$A$541</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss.0</c:formatCode>
-                <c:ptCount val="480"/>
+                <c:ptCount val="540"/>
                 <c:pt idx="0">
                   <c:v>2.0555555555555558E-5</c:v>
                 </c:pt>
@@ -1670,6 +1670,186 @@
                 </c:pt>
                 <c:pt idx="479">
                   <c:v>8.6041666666666666E-5</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>3.4618055555555551E-5</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>2.5405092592592588E-5</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.8645833333333334E-5</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.8541666666666666E-5</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>2.3125000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.9050925925925924E-5</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1.8668981481481481E-5</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1.9444444444444445E-5</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.8564814814814816E-5</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.8090277777777777E-5</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>3.1099537037037035E-5</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>2.5150462962962961E-5</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>2.4756944444444446E-5</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>2.2395833333333333E-5</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>2.4467592592592589E-5</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>2.3622685185185186E-5</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>2.3564814814814816E-5</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>2.4849537037037035E-5</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>2.634259259259259E-5</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>3.1701388888888885E-5</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>2.8749999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>2.7800925925925926E-5</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>3.0069444444444446E-5</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>2.9606481481481479E-5</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>2.9814814814814819E-5</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>3.0798611111111116E-5</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>2.8599537037037038E-5</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2.9618055555555558E-5</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>3.2858796296296299E-5</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>3.2129629629629626E-5</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>6.0486111111111112E-5</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>7.4525462962962965E-5</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>5.0115740740740742E-5</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>5.2280092592592597E-5</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>5.3298611111111121E-5</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>4.8784722222222218E-5</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>5.010416666666666E-5</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>6.1805555555555548E-5</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>4.9884259259259256E-5</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>7.5335648148148145E-5</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>9.5266203703703691E-5</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>9.4456018518518511E-5</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>8.4953703703703718E-5</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1.052199074074074E-4</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1.3692129629629628E-4</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>9.368055555555555E-5</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>9.3657407407407413E-5</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>8.6724537037037025E-5</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>1.43125E-4</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>9.0486111111111117E-5</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>1.8590277777777778E-4</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>2.9163194444444446E-4</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1.9895833333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>2.6535879629629631E-4</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>1.5908564814814813E-4</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>3.007407407407408E-4</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>1.9703703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>2.7047453703703706E-4</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>1.9862268518518522E-4</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>2.6519675925925924E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2455,6 +2635,636 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969624" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE27152A-93B0-9A4E-87D2-97DBC52A0780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="5778500"/>
+          <a:ext cx="969624" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                 32</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ranks / node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969624" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1518FED-F11A-824D-9337-5DE101F1066F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="5778500"/>
+          <a:ext cx="969624" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                 32</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ranks / node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969624" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3331E8B-A705-AE4A-A325-11A8E6ABF91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978900" y="5778500"/>
+          <a:ext cx="969624" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                 32</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ranks / node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969624" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F748107-3440-C144-BE72-114A1AD16B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9855200" y="5778500"/>
+          <a:ext cx="969624" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                 32</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ranks / node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969624" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00E3325-E6CA-4449-BE13-8F006453EE1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10680700" y="5778500"/>
+          <a:ext cx="969624" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                 32</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ranks / node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969624" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A50D5B0-538A-7F4A-BF45-049E63E57702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11557000" y="5778500"/>
+          <a:ext cx="969624" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                 32</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ranks / node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969624" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06837AE8-0A65-D149-8983-408688F0FB56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12458700" y="5778500"/>
+          <a:ext cx="969624" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                 32</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ranks / node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969624" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7C63BC-0156-1844-BBE0-81C10BC3452F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="5778500"/>
+          <a:ext cx="969624" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                 32</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ranks / node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969624" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29DA22B-91A8-214A-9050-D971B967939B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="5778500"/>
+          <a:ext cx="969624" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                 32</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ranks / node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2463,11 +3273,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.11025</cdr:x>
-      <cdr:y>0.08247</cdr:y>
+      <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.22191</cdr:x>
-      <cdr:y>0.97845</cdr:y>
+      <cdr:x>0.20693</cdr:x>
+      <cdr:y>0.94433</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2482,8 +3292,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="990600" y="508000"/>
-          <a:ext cx="1003300" cy="5518752"/>
+          <a:off x="990625" y="469908"/>
+          <a:ext cx="868680" cy="5346692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2519,7 +3329,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2532,12 +3342,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32933</cdr:x>
+      <cdr:x>0.30389</cdr:x>
       <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.44099</cdr:x>
-      <cdr:y>0.9806</cdr:y>
+      <cdr:x>0.40057</cdr:x>
+      <cdr:y>0.94433</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2552,8 +3362,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2959100" y="469900"/>
-          <a:ext cx="1003300" cy="5570127"/>
+          <a:off x="2730513" y="469908"/>
+          <a:ext cx="868680" cy="5346692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2680,7 +3490,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2693,12 +3503,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.54841</cdr:x>
-      <cdr:y>0.08041</cdr:y>
+      <cdr:x>0.49329</cdr:x>
+      <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65866</cdr:x>
-      <cdr:y>0.98023</cdr:y>
+      <cdr:x>0.58996</cdr:x>
+      <cdr:y>0.94433</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2713,8 +3523,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4927600" y="495300"/>
-          <a:ext cx="990600" cy="5542428"/>
+          <a:off x="4432301" y="469908"/>
+          <a:ext cx="868680" cy="5346692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2841,7 +3651,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2854,12 +3664,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.22332</cdr:x>
-      <cdr:y>0.08454</cdr:y>
+      <cdr:x>0.2106</cdr:x>
+      <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.32933</cdr:x>
-      <cdr:y>0.98051</cdr:y>
+      <cdr:x>0.30728</cdr:x>
+      <cdr:y>0.94433</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2874,8 +3684,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2006600" y="520700"/>
-          <a:ext cx="952500" cy="5518752"/>
+          <a:off x="1892286" y="469908"/>
+          <a:ext cx="868680" cy="5346692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2997,7 +3807,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3010,12 +3820,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.4424</cdr:x>
-      <cdr:y>0.07835</cdr:y>
+      <cdr:x>0.40141</cdr:x>
+      <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.547</cdr:x>
-      <cdr:y>0.97414</cdr:y>
+      <cdr:x>0.49809</cdr:x>
+      <cdr:y>0.94433</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3030,8 +3840,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3975100" y="482600"/>
-          <a:ext cx="939800" cy="5517603"/>
+          <a:off x="3606775" y="469908"/>
+          <a:ext cx="868680" cy="5346692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3153,7 +3963,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3166,12 +3976,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.65724</cdr:x>
-      <cdr:y>0.07835</cdr:y>
+      <cdr:x>0.59222</cdr:x>
+      <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76749</cdr:x>
-      <cdr:y>0.98239</cdr:y>
+      <cdr:x>0.6889</cdr:x>
+      <cdr:y>0.94433</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3186,8 +3996,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5905500" y="482600"/>
-          <a:ext cx="990600" cy="5568403"/>
+          <a:off x="5321266" y="469908"/>
+          <a:ext cx="868680" cy="5346692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3309,7 +4119,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3322,12 +4132,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.76749</cdr:x>
+      <cdr:x>0.69399</cdr:x>
       <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.87774</cdr:x>
-      <cdr:y>0.98032</cdr:y>
+      <cdr:x>0.79067</cdr:x>
+      <cdr:y>0.94433</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3342,8 +4152,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6896100" y="469900"/>
-          <a:ext cx="990600" cy="5568403"/>
+          <a:off x="6235690" y="469908"/>
+          <a:ext cx="868680" cy="5346692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3470,7 +4280,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3483,12 +4293,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.87915</cdr:x>
-      <cdr:y>0.08041</cdr:y>
+      <cdr:x>0.7901</cdr:x>
+      <cdr:y>0.07629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.9894</cdr:x>
-      <cdr:y>0.98445</cdr:y>
+      <cdr:x>0.88678</cdr:x>
+      <cdr:y>0.94433</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3503,8 +4313,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7899400" y="495300"/>
-          <a:ext cx="990600" cy="5568403"/>
+          <a:off x="7099283" y="469908"/>
+          <a:ext cx="868680" cy="5346692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3626,12 +4436,173 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>128 Nodes</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.89046</cdr:x>
+      <cdr:y>0.07629</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98714</cdr:x>
+      <cdr:y>0.94433</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563E425D-B502-C840-BAD7-628515D93D29}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8001000" y="469908"/>
+          <a:ext cx="868680" cy="5346692"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+            <a:alpha val="14902"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" lIns="182880"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>256 Nodes</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -3937,10 +4908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9744310-6B56-A046-96FA-F82FC8F9AE24}">
-  <dimension ref="A1:B481"/>
+  <dimension ref="A1:B541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7781,6 +8752,486 @@
         <v>1.880902777777778E-4</v>
       </c>
     </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>3.4618055555555551E-5</v>
+      </c>
+      <c r="B482" s="1">
+        <v>2.2903935185185188E-4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>2.5405092592592588E-5</v>
+      </c>
+      <c r="B483" s="1">
+        <v>3.038194444444444E-5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>1.8645833333333334E-5</v>
+      </c>
+      <c r="B484" s="1">
+        <v>2.2500000000000001E-5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>1.8541666666666666E-5</v>
+      </c>
+      <c r="B485" s="1">
+        <v>2.1770833333333335E-5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>2.3125000000000003E-5</v>
+      </c>
+      <c r="B486" s="1">
+        <v>2.759259259259259E-5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>1.9050925925925924E-5</v>
+      </c>
+      <c r="B487" s="1">
+        <v>2.2766203703703708E-5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>1.8668981481481481E-5</v>
+      </c>
+      <c r="B488" s="1">
+        <v>2.155092592592593E-5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>1.9444444444444445E-5</v>
+      </c>
+      <c r="B489" s="1">
+        <v>2.4328703703703705E-5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>1.8564814814814816E-5</v>
+      </c>
+      <c r="B490" s="1">
+        <v>2.2280092592592593E-5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>1.8090277777777777E-5</v>
+      </c>
+      <c r="B491" s="1">
+        <v>2.4513888888888887E-5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>3.1099537037037035E-5</v>
+      </c>
+      <c r="B492" s="1">
+        <v>4.3229166666666669E-5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>2.5150462962962961E-5</v>
+      </c>
+      <c r="B493" s="1">
+        <v>3.1030092592592596E-5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>2.4756944444444446E-5</v>
+      </c>
+      <c r="B494" s="1">
+        <v>3.0428240740740738E-5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>2.2395833333333333E-5</v>
+      </c>
+      <c r="B495" s="1">
+        <v>3.4259259259259262E-5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>2.4467592592592589E-5</v>
+      </c>
+      <c r="B496" s="1">
+        <v>3.2962962962962957E-5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>2.3622685185185186E-5</v>
+      </c>
+      <c r="B497" s="1">
+        <v>2.9444444444444445E-5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>2.3564814814814816E-5</v>
+      </c>
+      <c r="B498" s="1">
+        <v>2.8518518518518517E-5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>2.4849537037037035E-5</v>
+      </c>
+      <c r="B499" s="1">
+        <v>3.4386574074074071E-5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>2.634259259259259E-5</v>
+      </c>
+      <c r="B500" s="1">
+        <v>3.4224537037037036E-5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>3.1701388888888885E-5</v>
+      </c>
+      <c r="B501" s="1">
+        <v>3.8796296296296295E-5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>2.8749999999999997E-5</v>
+      </c>
+      <c r="B502" s="1">
+        <v>4.7731481481481476E-5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>2.7800925925925926E-5</v>
+      </c>
+      <c r="B503" s="1">
+        <v>4.6643518518518514E-5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>3.0069444444444446E-5</v>
+      </c>
+      <c r="B504" s="1">
+        <v>4.6701388888888898E-5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>2.9606481481481479E-5</v>
+      </c>
+      <c r="B505" s="1">
+        <v>4.3043981481481477E-5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>2.9814814814814819E-5</v>
+      </c>
+      <c r="B506" s="1">
+        <v>4.8692129629629622E-5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>3.0798611111111116E-5</v>
+      </c>
+      <c r="B507" s="1">
+        <v>4.8981481481481479E-5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>2.8599537037037038E-5</v>
+      </c>
+      <c r="B508" s="1">
+        <v>4.6666666666666665E-5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>2.9618055555555558E-5</v>
+      </c>
+      <c r="B509" s="1">
+        <v>4.6701388888888898E-5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>3.2858796296296299E-5</v>
+      </c>
+      <c r="B510" s="1">
+        <v>4.969907407407407E-5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>3.2129629629629626E-5</v>
+      </c>
+      <c r="B511" s="1">
+        <v>5.460648148148148E-5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>6.0486111111111112E-5</v>
+      </c>
+      <c r="B512" s="1">
+        <v>1.0280092592592593E-4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>7.4525462962962965E-5</v>
+      </c>
+      <c r="B513" s="1">
+        <v>1.0652777777777778E-4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>5.0115740740740742E-5</v>
+      </c>
+      <c r="B514" s="1">
+        <v>9.0520833333333336E-5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>5.2280092592592597E-5</v>
+      </c>
+      <c r="B515" s="1">
+        <v>8.7951388888888891E-5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>5.3298611111111121E-5</v>
+      </c>
+      <c r="B516" s="1">
+        <v>8.7268518518518533E-5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>4.8784722222222218E-5</v>
+      </c>
+      <c r="B517" s="1">
+        <v>8.2858796296296302E-5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>5.010416666666666E-5</v>
+      </c>
+      <c r="B518" s="1">
+        <v>8.7557870370370369E-5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>6.1805555555555548E-5</v>
+      </c>
+      <c r="B519" s="1">
+        <v>8.9803240740740731E-5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>4.9884259259259256E-5</v>
+      </c>
+      <c r="B520" s="1">
+        <v>9.7731481481481505E-5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>7.5335648148148145E-5</v>
+      </c>
+      <c r="B521" s="1">
+        <v>1.1454861111111111E-4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>9.5266203703703691E-5</v>
+      </c>
+      <c r="B522" s="1">
+        <v>1.6936342592592591E-4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>9.4456018518518511E-5</v>
+      </c>
+      <c r="B523" s="1">
+        <v>1.7179398148148151E-4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>8.4953703703703718E-5</v>
+      </c>
+      <c r="B524" s="1">
+        <v>1.7230324074074074E-4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>1.052199074074074E-4</v>
+      </c>
+      <c r="B525" s="1">
+        <v>1.8864583333333334E-4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>1.3692129629629628E-4</v>
+      </c>
+      <c r="B526" s="1">
+        <v>1.9855324074074079E-4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>9.368055555555555E-5</v>
+      </c>
+      <c r="B527" s="1">
+        <v>1.6891203703703705E-4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>9.3657407407407413E-5</v>
+      </c>
+      <c r="B528" s="1">
+        <v>1.7663194444444443E-4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>8.6724537037037025E-5</v>
+      </c>
+      <c r="B529" s="1">
+        <v>1.9135416666666669E-4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>1.43125E-4</v>
+      </c>
+      <c r="B530" s="1">
+        <v>2.0729166666666663E-4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>9.0486111111111117E-5</v>
+      </c>
+      <c r="B531" s="1">
+        <v>1.6353009259259258E-4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>1.8590277777777778E-4</v>
+      </c>
+      <c r="B532" s="1">
+        <v>3.5533564814814819E-4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>2.9163194444444446E-4</v>
+      </c>
+      <c r="B533" s="1">
+        <v>4.6081018518518519E-4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>1.9895833333333335E-4</v>
+      </c>
+      <c r="B534" s="1">
+        <v>3.4598379629629633E-4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>2.6535879629629631E-4</v>
+      </c>
+      <c r="B535" s="1">
+        <v>4.1031250000000003E-4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>1.5908564814814813E-4</v>
+      </c>
+      <c r="B536" s="1">
+        <v>3.3746527777777773E-4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>3.007407407407408E-4</v>
+      </c>
+      <c r="B537" s="1">
+        <v>4.425347222222222E-4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>1.9703703703703704E-4</v>
+      </c>
+      <c r="B538" s="1">
+        <v>3.6097222222222216E-4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>2.7047453703703706E-4</v>
+      </c>
+      <c r="B539" s="1">
+        <v>4.3217592592592597E-4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>1.9862268518518522E-4</v>
+      </c>
+      <c r="B540" s="1">
+        <v>3.5103009259259267E-4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>2.6519675925925924E-4</v>
+      </c>
+      <c r="B541" s="1">
+        <v>4.0681712962962959E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
